--- a/Lab19/Lab19.xlsx
+++ b/Lab19/Lab19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Software-testing\Lab19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE46E5E8-3D14-43B5-9BF7-547499B8C014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF440423-705E-4D32-A2BB-19E9293CA72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,9 @@
 - "Логин" - не заполнено
 - "Пароль" - не заполняем
 3. Нажать кнопку "Зарегистрироваться "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регситрация </t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +852,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>36</v>
       </c>
